--- a/data/pca/factorExposure/factorExposure_2012-01-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0172225824996366</v>
+        <v>0.01646941216181126</v>
       </c>
       <c r="C2">
-        <v>-0.03172071747534781</v>
+        <v>-0.02655578510434871</v>
       </c>
       <c r="D2">
-        <v>-0.01510740105231477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01307268898114746</v>
+      </c>
+      <c r="E2">
+        <v>0.01275099230248301</v>
+      </c>
+      <c r="F2">
+        <v>0.0146608127482496</v>
+      </c>
+      <c r="G2">
+        <v>0.009899005261045776</v>
+      </c>
+      <c r="H2">
+        <v>0.05272444641938333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07410173619179013</v>
+        <v>0.08774865115997102</v>
       </c>
       <c r="C4">
-        <v>-0.05380440610245823</v>
+        <v>-0.04137074696752816</v>
       </c>
       <c r="D4">
-        <v>-0.08089588674298628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06603770311863613</v>
+      </c>
+      <c r="E4">
+        <v>0.008915604671974785</v>
+      </c>
+      <c r="F4">
+        <v>0.03687905419617214</v>
+      </c>
+      <c r="G4">
+        <v>0.003506424500198845</v>
+      </c>
+      <c r="H4">
+        <v>-0.03744484732877925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.109698192331822</v>
+        <v>0.1195536718304932</v>
       </c>
       <c r="C6">
-        <v>-0.05091858900466616</v>
+        <v>-0.03504890563157485</v>
       </c>
       <c r="D6">
-        <v>-0.003526641648662943</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01309488178458361</v>
+      </c>
+      <c r="E6">
+        <v>-0.02161536075673829</v>
+      </c>
+      <c r="F6">
+        <v>0.05372795217264794</v>
+      </c>
+      <c r="G6">
+        <v>0.03534617719577527</v>
+      </c>
+      <c r="H6">
+        <v>0.1148425489741134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05248863400379292</v>
+        <v>0.06435300391677047</v>
       </c>
       <c r="C7">
-        <v>-0.02421997734955269</v>
+        <v>-0.01500402827419805</v>
       </c>
       <c r="D7">
-        <v>-0.04352095273658391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04563026149897509</v>
+      </c>
+      <c r="E7">
+        <v>0.0352003163251987</v>
+      </c>
+      <c r="F7">
+        <v>0.03592589779955467</v>
+      </c>
+      <c r="G7">
+        <v>-0.03378820057494644</v>
+      </c>
+      <c r="H7">
+        <v>-0.007854720053533678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04003082888428932</v>
+        <v>0.04170394314291265</v>
       </c>
       <c r="C8">
-        <v>-0.01436186533966671</v>
+        <v>-0.01036009647448796</v>
       </c>
       <c r="D8">
-        <v>-0.06332023724151033</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02559765764136836</v>
+      </c>
+      <c r="E8">
+        <v>0.02044452700692092</v>
+      </c>
+      <c r="F8">
+        <v>0.06043917716290335</v>
+      </c>
+      <c r="G8">
+        <v>0.05305096252825928</v>
+      </c>
+      <c r="H8">
+        <v>0.0005716570801896882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06902295209661571</v>
+        <v>0.07955678112292743</v>
       </c>
       <c r="C9">
-        <v>-0.04026160184384624</v>
+        <v>-0.02808437000658482</v>
       </c>
       <c r="D9">
-        <v>-0.0709125210367829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06267794546667484</v>
+      </c>
+      <c r="E9">
+        <v>0.02856220471838626</v>
+      </c>
+      <c r="F9">
+        <v>0.03680715393573165</v>
+      </c>
+      <c r="G9">
+        <v>0.008546945353912335</v>
+      </c>
+      <c r="H9">
+        <v>-0.05187961972842731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03084744269845615</v>
+        <v>0.03444605759716298</v>
       </c>
       <c r="C10">
-        <v>-0.02422897813088728</v>
+        <v>-0.0420118974009636</v>
       </c>
       <c r="D10">
-        <v>0.1690063708748229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1701429024297706</v>
+      </c>
+      <c r="E10">
+        <v>0.03599773476632547</v>
+      </c>
+      <c r="F10">
+        <v>0.04890142950174917</v>
+      </c>
+      <c r="G10">
+        <v>-0.02292176663468032</v>
+      </c>
+      <c r="H10">
+        <v>0.03053269927202449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07280820494762896</v>
+        <v>0.0772687462589957</v>
       </c>
       <c r="C11">
-        <v>-0.04336246897583302</v>
+        <v>-0.02537863468492072</v>
       </c>
       <c r="D11">
-        <v>-0.0582356990541728</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06269677205491314</v>
+      </c>
+      <c r="E11">
+        <v>-0.005417786482255371</v>
+      </c>
+      <c r="F11">
+        <v>0.02999759469155445</v>
+      </c>
+      <c r="G11">
+        <v>0.002484206158220632</v>
+      </c>
+      <c r="H11">
+        <v>-0.09109456493185117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06058551169736526</v>
+        <v>0.0691103735533643</v>
       </c>
       <c r="C12">
-        <v>-0.05173706938377618</v>
+        <v>-0.03692804633650455</v>
       </c>
       <c r="D12">
-        <v>-0.04921025806342227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04931290191284281</v>
+      </c>
+      <c r="E12">
+        <v>0.01210072022925414</v>
+      </c>
+      <c r="F12">
+        <v>0.02139428046058516</v>
+      </c>
+      <c r="G12">
+        <v>0.003865028060431104</v>
+      </c>
+      <c r="H12">
+        <v>-0.04564868787681822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06202695402690852</v>
+        <v>0.06554383749223955</v>
       </c>
       <c r="C13">
-        <v>-0.03240549083830992</v>
+        <v>-0.01963679659041074</v>
       </c>
       <c r="D13">
-        <v>-0.06144169269742117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04214889216924346</v>
+      </c>
+      <c r="E13">
+        <v>0.01314326943900814</v>
+      </c>
+      <c r="F13">
+        <v>0.007602254298810756</v>
+      </c>
+      <c r="G13">
+        <v>-0.004526901317675563</v>
+      </c>
+      <c r="H13">
+        <v>-0.05357643717873003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03295945685944022</v>
+        <v>0.04044030210372231</v>
       </c>
       <c r="C14">
-        <v>-0.030973777056524</v>
+        <v>-0.02838216244232321</v>
       </c>
       <c r="D14">
-        <v>-0.00405598294089434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01056755996843741</v>
+      </c>
+      <c r="E14">
+        <v>0.03179600248558963</v>
+      </c>
+      <c r="F14">
+        <v>0.01525340056064284</v>
+      </c>
+      <c r="G14">
+        <v>0.009741602127541583</v>
+      </c>
+      <c r="H14">
+        <v>-0.06112262603108834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0407405259306739</v>
+        <v>0.04044183972542938</v>
       </c>
       <c r="C15">
-        <v>-0.009138018481051211</v>
+        <v>-0.003353230896135909</v>
       </c>
       <c r="D15">
-        <v>-0.01940817365087641</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.005799114841531534</v>
+      </c>
+      <c r="E15">
+        <v>0.03535806252009831</v>
+      </c>
+      <c r="F15">
+        <v>0.0007589147422516412</v>
+      </c>
+      <c r="G15">
+        <v>0.0252521439583305</v>
+      </c>
+      <c r="H15">
+        <v>-0.03416027251380882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06186322061760625</v>
+        <v>0.07165106071898548</v>
       </c>
       <c r="C16">
-        <v>-0.04078768696251518</v>
+        <v>-0.02733491608067313</v>
       </c>
       <c r="D16">
-        <v>-0.04807219554364436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06070995532800964</v>
+      </c>
+      <c r="E16">
+        <v>0.003072258555892292</v>
+      </c>
+      <c r="F16">
+        <v>0.02830185752720184</v>
+      </c>
+      <c r="G16">
+        <v>-0.001986099988085374</v>
+      </c>
+      <c r="H16">
+        <v>-0.05887437629022303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06217200408812283</v>
+        <v>0.06339165727690904</v>
       </c>
       <c r="C20">
-        <v>-0.02418733904211478</v>
+        <v>-0.00995502014519821</v>
       </c>
       <c r="D20">
-        <v>-0.0525431700592018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03914301900492761</v>
+      </c>
+      <c r="E20">
+        <v>0.0176155599768478</v>
+      </c>
+      <c r="F20">
+        <v>0.02899324516265796</v>
+      </c>
+      <c r="G20">
+        <v>0.01481098094654808</v>
+      </c>
+      <c r="H20">
+        <v>-0.05056965939144199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02607809097087343</v>
+        <v>0.02607076506384421</v>
       </c>
       <c r="C21">
-        <v>0.002615632856142935</v>
+        <v>0.009617261993214667</v>
       </c>
       <c r="D21">
-        <v>-0.02761170919993792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02491912271169395</v>
+      </c>
+      <c r="E21">
+        <v>0.04414411095803024</v>
+      </c>
+      <c r="F21">
+        <v>-0.0163697028652907</v>
+      </c>
+      <c r="G21">
+        <v>0.01448332694683655</v>
+      </c>
+      <c r="H21">
+        <v>0.05423590069806993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07880314838330334</v>
+        <v>0.07281204615619598</v>
       </c>
       <c r="C22">
-        <v>-0.06010692785688332</v>
+        <v>-0.03887516750301381</v>
       </c>
       <c r="D22">
-        <v>-0.1216342152286095</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.08361744339699356</v>
+      </c>
+      <c r="E22">
+        <v>0.6030153962828576</v>
+      </c>
+      <c r="F22">
+        <v>-0.1457408677414604</v>
+      </c>
+      <c r="G22">
+        <v>-0.0737090041744962</v>
+      </c>
+      <c r="H22">
+        <v>0.1690124438849901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07975340901451805</v>
+        <v>0.07354743493368061</v>
       </c>
       <c r="C23">
-        <v>-0.05882642937310404</v>
+        <v>-0.03744004407510181</v>
       </c>
       <c r="D23">
-        <v>-0.1231452591968372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.08457189440919559</v>
+      </c>
+      <c r="E23">
+        <v>0.602312944871753</v>
+      </c>
+      <c r="F23">
+        <v>-0.1448251278829167</v>
+      </c>
+      <c r="G23">
+        <v>-0.0728485736343682</v>
+      </c>
+      <c r="H23">
+        <v>0.1653534362123083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07421447532576987</v>
+        <v>0.0806718492937635</v>
       </c>
       <c r="C24">
-        <v>-0.05100443899930072</v>
+        <v>-0.03388689169325711</v>
       </c>
       <c r="D24">
-        <v>-0.06097837975162275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06135163974319536</v>
+      </c>
+      <c r="E24">
+        <v>0.01693089446089181</v>
+      </c>
+      <c r="F24">
+        <v>0.03764819667565055</v>
+      </c>
+      <c r="G24">
+        <v>0.0139119600264273</v>
+      </c>
+      <c r="H24">
+        <v>-0.05166844563716617</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07424481666116289</v>
+        <v>0.07909274783308184</v>
       </c>
       <c r="C25">
-        <v>-0.05450917731661961</v>
+        <v>-0.03698811804335595</v>
       </c>
       <c r="D25">
-        <v>-0.06752684967563609</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05311042734163774</v>
+      </c>
+      <c r="E25">
+        <v>0.01941220772471298</v>
+      </c>
+      <c r="F25">
+        <v>0.02961196031069516</v>
+      </c>
+      <c r="G25">
+        <v>0.02018379602104102</v>
+      </c>
+      <c r="H25">
+        <v>-0.05770804747976056</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04587558782381394</v>
+        <v>0.04744012674921374</v>
       </c>
       <c r="C26">
-        <v>-0.009322340454327678</v>
+        <v>-0.001808101338343679</v>
       </c>
       <c r="D26">
-        <v>-0.01301699401111414</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01804355498962873</v>
+      </c>
+      <c r="E26">
+        <v>0.04461429935142078</v>
+      </c>
+      <c r="F26">
+        <v>0.03010261943858947</v>
+      </c>
+      <c r="G26">
+        <v>-0.00885498258498193</v>
+      </c>
+      <c r="H26">
+        <v>-0.05417732318023827</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05478344142858353</v>
+        <v>0.06266186142993461</v>
       </c>
       <c r="C28">
-        <v>-0.06809547498528037</v>
+        <v>-0.09211921882021919</v>
       </c>
       <c r="D28">
-        <v>0.3097870147807946</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3048814737484581</v>
+      </c>
+      <c r="E28">
+        <v>0.0310964018652565</v>
+      </c>
+      <c r="F28">
+        <v>0.05620633141429844</v>
+      </c>
+      <c r="G28">
+        <v>0.03377828411008597</v>
+      </c>
+      <c r="H28">
+        <v>0.04856473844448002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04196547363405672</v>
+        <v>0.04888823481825853</v>
       </c>
       <c r="C29">
-        <v>-0.02918236567285741</v>
+        <v>-0.02619453276936001</v>
       </c>
       <c r="D29">
-        <v>-0.01179982669541261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009155804208543583</v>
+      </c>
+      <c r="E29">
+        <v>0.06120039503464926</v>
+      </c>
+      <c r="F29">
+        <v>0.01282615608441368</v>
+      </c>
+      <c r="G29">
+        <v>-0.007672787535124913</v>
+      </c>
+      <c r="H29">
+        <v>-0.07320804312124571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1277364889867923</v>
+        <v>0.1304819969476468</v>
       </c>
       <c r="C30">
-        <v>-0.08649031773499889</v>
+        <v>-0.06154861899841972</v>
       </c>
       <c r="D30">
-        <v>-0.09950072456347625</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07012718339584861</v>
+      </c>
+      <c r="E30">
+        <v>0.0821497038490336</v>
+      </c>
+      <c r="F30">
+        <v>0.0007132968144942577</v>
+      </c>
+      <c r="G30">
+        <v>0.07836769503983623</v>
+      </c>
+      <c r="H30">
+        <v>0.05231541478443105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04446102946068461</v>
+        <v>0.04905321178077181</v>
       </c>
       <c r="C31">
-        <v>-0.02223727931826608</v>
+        <v>-0.01394468875124178</v>
       </c>
       <c r="D31">
-        <v>-0.02403174251310821</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02934281795631173</v>
+      </c>
+      <c r="E31">
+        <v>0.02395262420218963</v>
+      </c>
+      <c r="F31">
+        <v>0.01278708026382981</v>
+      </c>
+      <c r="G31">
+        <v>-0.02476526909503372</v>
+      </c>
+      <c r="H31">
+        <v>-0.06427121417184802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03874430465530344</v>
+        <v>0.03895757336896838</v>
       </c>
       <c r="C32">
-        <v>-0.02637076096529905</v>
+        <v>-0.02181861218072136</v>
       </c>
       <c r="D32">
-        <v>-0.024984764628681</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01225849647402777</v>
+      </c>
+      <c r="E32">
+        <v>0.05315808993809941</v>
+      </c>
+      <c r="F32">
+        <v>-0.004285949721470035</v>
+      </c>
+      <c r="G32">
+        <v>0.02590165887830561</v>
+      </c>
+      <c r="H32">
+        <v>-0.07045370497712372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0845283836259937</v>
+        <v>0.09625151551614981</v>
       </c>
       <c r="C33">
-        <v>-0.03959101343218726</v>
+        <v>-0.02536021512539438</v>
       </c>
       <c r="D33">
-        <v>-0.0605932790549923</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04670619793939289</v>
+      </c>
+      <c r="E33">
+        <v>0.01518397976522522</v>
+      </c>
+      <c r="F33">
+        <v>0.007468399597675756</v>
+      </c>
+      <c r="G33">
+        <v>-0.006702389316643208</v>
+      </c>
+      <c r="H33">
+        <v>-0.05750051221349944</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05878097179917007</v>
+        <v>0.06390379806237691</v>
       </c>
       <c r="C34">
-        <v>-0.025538663324488</v>
+        <v>-0.01145083349305423</v>
       </c>
       <c r="D34">
-        <v>-0.05811412840259941</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0507644893707855</v>
+      </c>
+      <c r="E34">
+        <v>0.006987835538433614</v>
+      </c>
+      <c r="F34">
+        <v>0.02022114943897882</v>
+      </c>
+      <c r="G34">
+        <v>0.0001271725971800727</v>
+      </c>
+      <c r="H34">
+        <v>-0.06413984107816016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03725749096152088</v>
+        <v>0.03963887238390918</v>
       </c>
       <c r="C35">
-        <v>-0.008116324975160691</v>
+        <v>-0.003259322081399563</v>
       </c>
       <c r="D35">
-        <v>-0.01675973172698365</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01079996690952371</v>
+      </c>
+      <c r="E35">
+        <v>0.02098905698396669</v>
+      </c>
+      <c r="F35">
+        <v>-0.01485042922211052</v>
+      </c>
+      <c r="G35">
+        <v>-0.004507954190755458</v>
+      </c>
+      <c r="H35">
+        <v>-0.01677121453765109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02272179015810557</v>
+        <v>0.02886609122771495</v>
       </c>
       <c r="C36">
-        <v>-0.01749979700295386</v>
+        <v>-0.01517076008216126</v>
       </c>
       <c r="D36">
-        <v>-0.02491305174931297</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01776793488899171</v>
+      </c>
+      <c r="E36">
+        <v>0.03146216241608799</v>
+      </c>
+      <c r="F36">
+        <v>0.02152459247264896</v>
+      </c>
+      <c r="G36">
+        <v>-0.008226035001438836</v>
+      </c>
+      <c r="H36">
+        <v>-0.04529014054927583</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04220623199553138</v>
+        <v>0.04492559134577755</v>
       </c>
       <c r="C38">
-        <v>-0.001609535235463205</v>
+        <v>0.003797498797572154</v>
       </c>
       <c r="D38">
-        <v>-0.01832879731416987</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01759146587792598</v>
+      </c>
+      <c r="E38">
+        <v>0.05143223923080574</v>
+      </c>
+      <c r="F38">
+        <v>-0.004985784670633165</v>
+      </c>
+      <c r="G38">
+        <v>0.008700322576420321</v>
+      </c>
+      <c r="H38">
+        <v>-0.03706322675281865</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09261389021649045</v>
+        <v>0.1020743146356295</v>
       </c>
       <c r="C39">
-        <v>-0.06901504436392705</v>
+        <v>-0.04948031816346724</v>
       </c>
       <c r="D39">
-        <v>-0.05428866532723326</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06206812691590709</v>
+      </c>
+      <c r="E39">
+        <v>0.005751801260223058</v>
+      </c>
+      <c r="F39">
+        <v>-0.001729044240316993</v>
+      </c>
+      <c r="G39">
+        <v>0.0387418466354638</v>
+      </c>
+      <c r="H39">
+        <v>-0.05017508371186517</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07667703054195134</v>
+        <v>0.06962700198742981</v>
       </c>
       <c r="C40">
-        <v>-0.03057463725713773</v>
+        <v>-0.01164773247231859</v>
       </c>
       <c r="D40">
-        <v>-0.005239300642401356</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01557466409746814</v>
+      </c>
+      <c r="E40">
+        <v>0.02936780472901948</v>
+      </c>
+      <c r="F40">
+        <v>-0.04645157208064905</v>
+      </c>
+      <c r="G40">
+        <v>0.03754051121946695</v>
+      </c>
+      <c r="H40">
+        <v>0.08842399693408885</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04267947172125709</v>
+        <v>0.04443195627985952</v>
       </c>
       <c r="C41">
-        <v>-0.005074050455652572</v>
+        <v>0.0042552876710378</v>
       </c>
       <c r="D41">
-        <v>-0.03250341757867844</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03336168883252033</v>
+      </c>
+      <c r="E41">
+        <v>0.000945993367333406</v>
+      </c>
+      <c r="F41">
+        <v>-0.01529107274821335</v>
+      </c>
+      <c r="G41">
+        <v>0.01187812477216255</v>
+      </c>
+      <c r="H41">
+        <v>-0.03884534143324138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05096060206434347</v>
+        <v>0.05963438232123793</v>
       </c>
       <c r="C43">
-        <v>-0.02539926924878102</v>
+        <v>-0.01774009883514819</v>
       </c>
       <c r="D43">
-        <v>-0.01650716026647087</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0254819224900473</v>
+      </c>
+      <c r="E43">
+        <v>0.0211874097872189</v>
+      </c>
+      <c r="F43">
+        <v>0.01403335305102601</v>
+      </c>
+      <c r="G43">
+        <v>-0.01937007929570345</v>
+      </c>
+      <c r="H43">
+        <v>-0.06093905461578106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09763918157886001</v>
+        <v>0.09770675686266841</v>
       </c>
       <c r="C44">
-        <v>-0.08614526525904284</v>
+        <v>-0.06220374206178963</v>
       </c>
       <c r="D44">
-        <v>-0.07865972829213172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05699471783944115</v>
+      </c>
+      <c r="E44">
+        <v>0.08033823359488805</v>
+      </c>
+      <c r="F44">
+        <v>0.0704038824649538</v>
+      </c>
+      <c r="G44">
+        <v>0.03085268676345052</v>
+      </c>
+      <c r="H44">
+        <v>-0.03551751955858148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02597204061575795</v>
+        <v>0.03472848692897117</v>
       </c>
       <c r="C46">
-        <v>-0.01557823916557612</v>
+        <v>-0.01232826068051883</v>
       </c>
       <c r="D46">
-        <v>-0.02475078948316605</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03413967882146254</v>
+      </c>
+      <c r="E46">
+        <v>0.03415450481498959</v>
+      </c>
+      <c r="F46">
+        <v>0.01417790881855043</v>
+      </c>
+      <c r="G46">
+        <v>-0.008038562146552979</v>
+      </c>
+      <c r="H46">
+        <v>-0.02902274077219524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03088560345772073</v>
+        <v>0.03849689531951783</v>
       </c>
       <c r="C47">
-        <v>-0.02366411139665978</v>
+        <v>-0.02002322150177466</v>
       </c>
       <c r="D47">
-        <v>-0.008361748731512849</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.007696923197727219</v>
+      </c>
+      <c r="E47">
+        <v>0.04589184217260462</v>
+      </c>
+      <c r="F47">
+        <v>0.01200783956727252</v>
+      </c>
+      <c r="G47">
+        <v>-0.04306648490301093</v>
+      </c>
+      <c r="H47">
+        <v>-0.03376515085472182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03370410409881005</v>
+        <v>0.03810211723200491</v>
       </c>
       <c r="C48">
-        <v>-0.01743638456837993</v>
+        <v>-0.010719867075739</v>
       </c>
       <c r="D48">
-        <v>-0.03201020197907894</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02062413752868013</v>
+      </c>
+      <c r="E48">
+        <v>0.03991786988672016</v>
+      </c>
+      <c r="F48">
+        <v>0.007880554604499943</v>
+      </c>
+      <c r="G48">
+        <v>0.01295307618986645</v>
+      </c>
+      <c r="H48">
+        <v>-0.03999267639108033</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1620800011504055</v>
+        <v>0.1894973328365798</v>
       </c>
       <c r="C49">
-        <v>-0.0492642043744818</v>
+        <v>-0.0303208738918792</v>
       </c>
       <c r="D49">
-        <v>0.007463025162044388</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02969618431592301</v>
+      </c>
+      <c r="E49">
+        <v>-0.1573724408381619</v>
+      </c>
+      <c r="F49">
+        <v>0.05570505443064883</v>
+      </c>
+      <c r="G49">
+        <v>-0.0641497131167913</v>
+      </c>
+      <c r="H49">
+        <v>0.2222489210007433</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04010336109701482</v>
+        <v>0.04605599920013488</v>
       </c>
       <c r="C50">
-        <v>-0.02001400041471968</v>
+        <v>-0.01356935561427066</v>
       </c>
       <c r="D50">
-        <v>-0.03958469841299856</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03307441625285355</v>
+      </c>
+      <c r="E50">
+        <v>0.04251589144723569</v>
+      </c>
+      <c r="F50">
+        <v>0.01448924443742806</v>
+      </c>
+      <c r="G50">
+        <v>-0.0195553744855471</v>
+      </c>
+      <c r="H50">
+        <v>-0.06731624313098113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02813209821105458</v>
+        <v>0.0298708098111838</v>
       </c>
       <c r="C51">
-        <v>-0.009937131660226122</v>
+        <v>-0.003486023465512275</v>
       </c>
       <c r="D51">
-        <v>-0.01039517941192053</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01175562182240389</v>
+      </c>
+      <c r="E51">
+        <v>0.01206503854929616</v>
+      </c>
+      <c r="F51">
+        <v>0.01575139057749505</v>
+      </c>
+      <c r="G51">
+        <v>0.0009128200582899998</v>
+      </c>
+      <c r="H51">
+        <v>-0.0009300980656743497</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1551514861959567</v>
+        <v>0.1633058886565242</v>
       </c>
       <c r="C53">
-        <v>-0.07242644115731053</v>
+        <v>-0.05055702933648864</v>
       </c>
       <c r="D53">
-        <v>-0.008169780933297623</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01959618758806184</v>
+      </c>
+      <c r="E53">
+        <v>-0.03077392574226609</v>
+      </c>
+      <c r="F53">
+        <v>0.01439593702856173</v>
+      </c>
+      <c r="G53">
+        <v>-0.02324419894995768</v>
+      </c>
+      <c r="H53">
+        <v>-0.1727582575992133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0577715141376761</v>
+        <v>0.05817195590943873</v>
       </c>
       <c r="C54">
-        <v>-0.02319547214534191</v>
+        <v>-0.01284012047799903</v>
       </c>
       <c r="D54">
-        <v>-0.02039516147668163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01537174654176981</v>
+      </c>
+      <c r="E54">
+        <v>0.04570223154653558</v>
+      </c>
+      <c r="F54">
+        <v>0.003319370067757467</v>
+      </c>
+      <c r="G54">
+        <v>0.02060852260517869</v>
+      </c>
+      <c r="H54">
+        <v>-0.05044203439265694</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09992904293906085</v>
+        <v>0.1041688757570101</v>
       </c>
       <c r="C55">
-        <v>-0.04945965198723752</v>
+        <v>-0.03346262104759857</v>
       </c>
       <c r="D55">
-        <v>-0.01938324460306658</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02377221022783683</v>
+      </c>
+      <c r="E55">
+        <v>0.009091065479628509</v>
+      </c>
+      <c r="F55">
+        <v>0.01264939810323148</v>
+      </c>
+      <c r="G55">
+        <v>-0.01298553592328089</v>
+      </c>
+      <c r="H55">
+        <v>-0.1558149604464301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1516041770318186</v>
+        <v>0.1618018257101973</v>
       </c>
       <c r="C56">
-        <v>-0.0839070307984626</v>
+        <v>-0.06048567963763612</v>
       </c>
       <c r="D56">
-        <v>-0.01741712629273007</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02424245765331686</v>
+      </c>
+      <c r="E56">
+        <v>-0.02253753562243801</v>
+      </c>
+      <c r="F56">
+        <v>0.03270343921345514</v>
+      </c>
+      <c r="G56">
+        <v>-0.03834418168291851</v>
+      </c>
+      <c r="H56">
+        <v>-0.1760937996089442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1301873598437188</v>
+        <v>0.1007077404044867</v>
       </c>
       <c r="C58">
-        <v>0.005273846960076962</v>
+        <v>0.04505698666172454</v>
       </c>
       <c r="D58">
-        <v>-0.03151322392412482</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03216568967457519</v>
+      </c>
+      <c r="E58">
+        <v>0.1430222803535326</v>
+      </c>
+      <c r="F58">
+        <v>0.001937158002131437</v>
+      </c>
+      <c r="G58">
+        <v>-0.02181386582297598</v>
+      </c>
+      <c r="H58">
+        <v>0.1944179538203322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1239901676181424</v>
+        <v>0.1381074091348645</v>
       </c>
       <c r="C59">
-        <v>-0.0742427455997454</v>
+        <v>-0.09830164216609123</v>
       </c>
       <c r="D59">
-        <v>0.3686104380814309</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3625434020116212</v>
+      </c>
+      <c r="E59">
+        <v>0.02523120584856924</v>
+      </c>
+      <c r="F59">
+        <v>0.01235706462031884</v>
+      </c>
+      <c r="G59">
+        <v>-0.01436837944238907</v>
+      </c>
+      <c r="H59">
+        <v>-0.00272358371315845</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2072844279557885</v>
+        <v>0.2345558542675064</v>
       </c>
       <c r="C60">
-        <v>-0.09061233837329338</v>
+        <v>-0.06225724625799406</v>
       </c>
       <c r="D60">
-        <v>-0.02064079817842934</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04519916797361503</v>
+      </c>
+      <c r="E60">
+        <v>-0.1011676780350283</v>
+      </c>
+      <c r="F60">
+        <v>0.05431440238377355</v>
+      </c>
+      <c r="G60">
+        <v>0.01895139225038285</v>
+      </c>
+      <c r="H60">
+        <v>0.1471067514089315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08314501437948869</v>
+        <v>0.09010014659397668</v>
       </c>
       <c r="C61">
-        <v>-0.04963784764590563</v>
+        <v>-0.03552034219597484</v>
       </c>
       <c r="D61">
-        <v>-0.04464806416346934</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04194920186741583</v>
+      </c>
+      <c r="E61">
+        <v>0.002146436375228184</v>
+      </c>
+      <c r="F61">
+        <v>0.002590051471963587</v>
+      </c>
+      <c r="G61">
+        <v>0.0003086570680003604</v>
+      </c>
+      <c r="H61">
+        <v>-0.06516586242954087</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1319790193578363</v>
+        <v>0.1390793195757121</v>
       </c>
       <c r="C62">
-        <v>-0.06021316371654242</v>
+        <v>-0.03774141149906188</v>
       </c>
       <c r="D62">
-        <v>-0.01798239554539386</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03280701259670391</v>
+      </c>
+      <c r="E62">
+        <v>-0.05784218925126425</v>
+      </c>
+      <c r="F62">
+        <v>0.0121109206593587</v>
+      </c>
+      <c r="G62">
+        <v>0.005024224648755357</v>
+      </c>
+      <c r="H62">
+        <v>-0.1695505417844985</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05213982600534253</v>
+        <v>0.05166766369761119</v>
       </c>
       <c r="C63">
-        <v>-0.02331029419554635</v>
+        <v>-0.01381866333941192</v>
       </c>
       <c r="D63">
-        <v>-0.02390771414192785</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02129107363931782</v>
+      </c>
+      <c r="E63">
+        <v>0.04977577631999563</v>
+      </c>
+      <c r="F63">
+        <v>-0.006024730888958084</v>
+      </c>
+      <c r="G63">
+        <v>0.01839895245155468</v>
+      </c>
+      <c r="H63">
+        <v>-0.04719805406695082</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1036993809520945</v>
+        <v>0.1077357708083901</v>
       </c>
       <c r="C64">
-        <v>-0.03051700728458913</v>
+        <v>-0.01545550451237668</v>
       </c>
       <c r="D64">
-        <v>-0.04168951583802821</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03131267087404892</v>
+      </c>
+      <c r="E64">
+        <v>0.03141526001446278</v>
+      </c>
+      <c r="F64">
+        <v>0.04208850996361167</v>
+      </c>
+      <c r="G64">
+        <v>0.04714081971087103</v>
+      </c>
+      <c r="H64">
+        <v>-0.04585721632863599</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1269771788571662</v>
+        <v>0.126626341679695</v>
       </c>
       <c r="C65">
-        <v>-0.05794696928022219</v>
+        <v>-0.03955565508666404</v>
       </c>
       <c r="D65">
-        <v>0.006748847032367938</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.009315096154899448</v>
+      </c>
+      <c r="E65">
+        <v>-0.001622492649567623</v>
+      </c>
+      <c r="F65">
+        <v>0.0545646967499578</v>
+      </c>
+      <c r="G65">
+        <v>0.06067449587789906</v>
+      </c>
+      <c r="H65">
+        <v>0.1459860010955366</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1475109600781462</v>
+        <v>0.1540696254325735</v>
       </c>
       <c r="C66">
-        <v>-0.06698888410202802</v>
+        <v>-0.03883534826078967</v>
       </c>
       <c r="D66">
-        <v>-0.107562074188007</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09718711801139071</v>
+      </c>
+      <c r="E66">
+        <v>-0.0216620547635837</v>
+      </c>
+      <c r="F66">
+        <v>0.008559334824608888</v>
+      </c>
+      <c r="G66">
+        <v>0.04237214642012633</v>
+      </c>
+      <c r="H66">
+        <v>-0.1167234654666297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07504485355160283</v>
+        <v>0.08508544382075553</v>
       </c>
       <c r="C67">
-        <v>-0.009164626798521501</v>
+        <v>-0.001133637534717884</v>
       </c>
       <c r="D67">
-        <v>-0.02153371488941236</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0287337115243751</v>
+      </c>
+      <c r="E67">
+        <v>0.01790200823804594</v>
+      </c>
+      <c r="F67">
+        <v>0.02035162330430665</v>
+      </c>
+      <c r="G67">
+        <v>-0.009338350526105118</v>
+      </c>
+      <c r="H67">
+        <v>-0.04035718934696942</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06041266180159206</v>
+        <v>0.05834347018142833</v>
       </c>
       <c r="C68">
-        <v>-0.04859367693147983</v>
+        <v>-0.0685203461177734</v>
       </c>
       <c r="D68">
-        <v>0.2548742130192501</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.266991533803236</v>
+      </c>
+      <c r="E68">
+        <v>0.0387302593303171</v>
+      </c>
+      <c r="F68">
+        <v>0.01441991295291837</v>
+      </c>
+      <c r="G68">
+        <v>-0.01037622228374263</v>
+      </c>
+      <c r="H68">
+        <v>-0.006592895090334042</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05180294193506085</v>
+        <v>0.05308622699064529</v>
       </c>
       <c r="C69">
-        <v>-0.01511567890597517</v>
+        <v>-0.004882031553568623</v>
       </c>
       <c r="D69">
-        <v>-0.02230189082320026</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01624561620587774</v>
+      </c>
+      <c r="E69">
+        <v>0.02581798244721</v>
+      </c>
+      <c r="F69">
+        <v>-0.01163592417761684</v>
+      </c>
+      <c r="G69">
+        <v>-0.02216276578680568</v>
+      </c>
+      <c r="H69">
+        <v>-0.05254868647242714</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003393722290857354</v>
+        <v>0.02642676025099303</v>
       </c>
       <c r="C70">
-        <v>0.009334504826886322</v>
+        <v>0.003877675821336954</v>
       </c>
       <c r="D70">
-        <v>0.005279680029105538</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.0001922294648914643</v>
+      </c>
+      <c r="E70">
+        <v>-0.02325887356355168</v>
+      </c>
+      <c r="F70">
+        <v>0.009147885463453926</v>
+      </c>
+      <c r="G70">
+        <v>-0.02116525971265834</v>
+      </c>
+      <c r="H70">
+        <v>0.01963420489982546</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05944835833079051</v>
+        <v>0.060604650875485</v>
       </c>
       <c r="C71">
-        <v>-0.04831332830399102</v>
+        <v>-0.07397619419605632</v>
       </c>
       <c r="D71">
-        <v>0.2920784442149601</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2924680105742926</v>
+      </c>
+      <c r="E71">
+        <v>0.03426231095731189</v>
+      </c>
+      <c r="F71">
+        <v>0.04357305484035878</v>
+      </c>
+      <c r="G71">
+        <v>-0.001049248403285522</v>
+      </c>
+      <c r="H71">
+        <v>-0.00779806698751177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1426122331347808</v>
+        <v>0.144433853292816</v>
       </c>
       <c r="C72">
-        <v>-0.05870939660304293</v>
+        <v>-0.03302623132675256</v>
       </c>
       <c r="D72">
-        <v>-0.004025491749454779</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.001948121081996735</v>
+      </c>
+      <c r="E72">
+        <v>-0.07879938345708558</v>
+      </c>
+      <c r="F72">
+        <v>-0.1683463820980582</v>
+      </c>
+      <c r="G72">
+        <v>0.1180392502101212</v>
+      </c>
+      <c r="H72">
+        <v>-0.01557308431201271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2852047611418128</v>
+        <v>0.2888970961063869</v>
       </c>
       <c r="C73">
-        <v>-0.0940075199768038</v>
+        <v>-0.03577729337182337</v>
       </c>
       <c r="D73">
-        <v>-0.04628209369098657</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09215378744639442</v>
+      </c>
+      <c r="E73">
+        <v>-0.2230955316293625</v>
+      </c>
+      <c r="F73">
+        <v>0.08672331686177255</v>
+      </c>
+      <c r="G73">
+        <v>-0.144520569020552</v>
+      </c>
+      <c r="H73">
+        <v>0.504832881537185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08154922857011714</v>
+        <v>0.09175049599512496</v>
       </c>
       <c r="C74">
-        <v>-0.07492494523142326</v>
+        <v>-0.05958423686687584</v>
       </c>
       <c r="D74">
-        <v>-0.009789994433878509</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03164933899541047</v>
+      </c>
+      <c r="E74">
+        <v>-0.003332096278714833</v>
+      </c>
+      <c r="F74">
+        <v>0.00031858373286623</v>
+      </c>
+      <c r="G74">
+        <v>-0.05163645722325284</v>
+      </c>
+      <c r="H74">
+        <v>-0.1153139218977481</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.0968509368022715</v>
+        <v>0.1019205239028627</v>
       </c>
       <c r="C75">
-        <v>-0.04779738413883292</v>
+        <v>-0.02680928093841111</v>
       </c>
       <c r="D75">
-        <v>-0.008745895725784759</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01553566732622869</v>
+      </c>
+      <c r="E75">
+        <v>0.001781213951975355</v>
+      </c>
+      <c r="F75">
+        <v>0.02146210011572819</v>
+      </c>
+      <c r="G75">
+        <v>-0.02630301938506171</v>
+      </c>
+      <c r="H75">
+        <v>-0.1089283361624917</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1322092591728384</v>
+        <v>0.1424378753807179</v>
       </c>
       <c r="C76">
-        <v>-0.07858167332703578</v>
+        <v>-0.05735549307105851</v>
       </c>
       <c r="D76">
-        <v>-0.04315187372836822</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04761662808938297</v>
+      </c>
+      <c r="E76">
+        <v>0.01697864166209363</v>
+      </c>
+      <c r="F76">
+        <v>0.04886007774364477</v>
+      </c>
+      <c r="G76">
+        <v>-0.02059769612525386</v>
+      </c>
+      <c r="H76">
+        <v>-0.2023993088374929</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1174656192443524</v>
+        <v>0.1069777358863007</v>
       </c>
       <c r="C77">
-        <v>-0.007574086845357665</v>
+        <v>0.0190872039542521</v>
       </c>
       <c r="D77">
-        <v>-0.07654662475608823</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.0297019594344061</v>
+      </c>
+      <c r="E77">
+        <v>0.0205865394956127</v>
+      </c>
+      <c r="F77">
+        <v>0.1088001303667651</v>
+      </c>
+      <c r="G77">
+        <v>0.8916461704141793</v>
+      </c>
+      <c r="H77">
+        <v>0.1024681610758952</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.10679938347699</v>
+        <v>0.1451583008696032</v>
       </c>
       <c r="C78">
-        <v>-0.0355801366261597</v>
+        <v>-0.03052691207086774</v>
       </c>
       <c r="D78">
-        <v>-0.08434003999413314</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08099367278188743</v>
+      </c>
+      <c r="E78">
+        <v>0.05473537984829821</v>
+      </c>
+      <c r="F78">
+        <v>0.05653481221715547</v>
+      </c>
+      <c r="G78">
+        <v>0.08094302864579947</v>
+      </c>
+      <c r="H78">
+        <v>0.02789879868321362</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1486913489964992</v>
+        <v>0.1514813694267943</v>
       </c>
       <c r="C79">
-        <v>-0.06742149576113221</v>
+        <v>-0.03949688087857725</v>
       </c>
       <c r="D79">
-        <v>-0.02447430718902034</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02795140291248964</v>
+      </c>
+      <c r="E79">
+        <v>-0.01659642493209906</v>
+      </c>
+      <c r="F79">
+        <v>0.02224634707541812</v>
+      </c>
+      <c r="G79">
+        <v>-0.04325548874934552</v>
+      </c>
+      <c r="H79">
+        <v>-0.1617547066396568</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04202026491914281</v>
+        <v>0.04328827619552541</v>
       </c>
       <c r="C80">
-        <v>-0.01955208425246127</v>
+        <v>-0.01406576428805797</v>
       </c>
       <c r="D80">
-        <v>-0.02815009448608409</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01215119544986895</v>
+      </c>
+      <c r="E80">
+        <v>-0.03009839215935935</v>
+      </c>
+      <c r="F80">
+        <v>0.008491100849952263</v>
+      </c>
+      <c r="G80">
+        <v>-0.0222751838606819</v>
+      </c>
+      <c r="H80">
+        <v>-0.0428241677424516</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1187222386281268</v>
+        <v>0.1205967153645741</v>
       </c>
       <c r="C81">
-        <v>-0.05921909859152585</v>
+        <v>-0.03664299631373306</v>
       </c>
       <c r="D81">
-        <v>-0.03229005255346637</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0252389476101762</v>
+      </c>
+      <c r="E81">
+        <v>0.008706301249830481</v>
+      </c>
+      <c r="F81">
+        <v>0.02032175686958859</v>
+      </c>
+      <c r="G81">
+        <v>-0.05953775290542947</v>
+      </c>
+      <c r="H81">
+        <v>-0.1500993949778471</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1300400801823527</v>
+        <v>0.1313722429546711</v>
       </c>
       <c r="C82">
-        <v>-0.07138577564825645</v>
+        <v>-0.04974516210856201</v>
       </c>
       <c r="D82">
-        <v>-0.01994028700006397</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02968179673150073</v>
+      </c>
+      <c r="E82">
+        <v>-0.02012595777112454</v>
+      </c>
+      <c r="F82">
+        <v>0.04839304566519036</v>
+      </c>
+      <c r="G82">
+        <v>-0.05398295328034246</v>
+      </c>
+      <c r="H82">
+        <v>-0.2061537779175289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07326364287334866</v>
+        <v>0.08567764281319676</v>
       </c>
       <c r="C83">
-        <v>0.0195390198590715</v>
+        <v>0.03180141194121393</v>
       </c>
       <c r="D83">
-        <v>-0.02738161302383612</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02944031505677847</v>
+      </c>
+      <c r="E83">
+        <v>0.02208897504076162</v>
+      </c>
+      <c r="F83">
+        <v>0.05636012957114358</v>
+      </c>
+      <c r="G83">
+        <v>-0.07471630843643309</v>
+      </c>
+      <c r="H83">
+        <v>0.03951240578218308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02971818284751455</v>
+        <v>0.03711985526020223</v>
       </c>
       <c r="C84">
-        <v>-0.02786952867467792</v>
+        <v>-0.02217870491987789</v>
       </c>
       <c r="D84">
-        <v>-0.02463862992194778</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03225824647485636</v>
+      </c>
+      <c r="E84">
+        <v>0.02925781017522775</v>
+      </c>
+      <c r="F84">
+        <v>-0.05391809659106923</v>
+      </c>
+      <c r="G84">
+        <v>-0.06273495523562622</v>
+      </c>
+      <c r="H84">
+        <v>-0.008333108348747949</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1210835025924221</v>
+        <v>0.1228335279061832</v>
       </c>
       <c r="C85">
-        <v>-0.04673934061768831</v>
+        <v>-0.02455544721677037</v>
       </c>
       <c r="D85">
-        <v>-0.02552084084627492</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02389838339880457</v>
+      </c>
+      <c r="E85">
+        <v>0.01878446250961672</v>
+      </c>
+      <c r="F85">
+        <v>0.04675590085645673</v>
+      </c>
+      <c r="G85">
+        <v>-0.04192753952334907</v>
+      </c>
+      <c r="H85">
+        <v>-0.1537157753008274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0546087581188383</v>
+        <v>0.05838475967091154</v>
       </c>
       <c r="C86">
-        <v>-0.02060451951014465</v>
+        <v>-0.01034693754077276</v>
       </c>
       <c r="D86">
-        <v>-0.03395911253882503</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03137240508688748</v>
+      </c>
+      <c r="E86">
+        <v>0.05568439979365023</v>
+      </c>
+      <c r="F86">
+        <v>0.02686989013361821</v>
+      </c>
+      <c r="G86">
+        <v>-0.02776271172950631</v>
+      </c>
+      <c r="H86">
+        <v>0.01011277117175108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1180462576515111</v>
+        <v>0.1223549245566904</v>
       </c>
       <c r="C87">
-        <v>-0.06328570468384723</v>
+        <v>-0.032861294852505</v>
       </c>
       <c r="D87">
-        <v>-0.08070650356583992</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07314019784788001</v>
+      </c>
+      <c r="E87">
+        <v>0.01703076304813562</v>
+      </c>
+      <c r="F87">
+        <v>0.010910204160639</v>
+      </c>
+      <c r="G87">
+        <v>0.140286223977794</v>
+      </c>
+      <c r="H87">
+        <v>0.0251514706291918</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05327652040025978</v>
+        <v>0.06086692744130476</v>
       </c>
       <c r="C88">
-        <v>-0.02887233474956423</v>
+        <v>-0.02001735865140111</v>
       </c>
       <c r="D88">
-        <v>-0.02273785102871701</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03577257485646711</v>
+      </c>
+      <c r="E88">
+        <v>0.01640770797722672</v>
+      </c>
+      <c r="F88">
+        <v>0.009925307842635346</v>
+      </c>
+      <c r="G88">
+        <v>0.00338903769406999</v>
+      </c>
+      <c r="H88">
+        <v>-0.05472801659849091</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08951821457793092</v>
+        <v>0.09634174515692184</v>
       </c>
       <c r="C89">
-        <v>-0.06963176087884855</v>
+        <v>-0.09740621183751394</v>
       </c>
       <c r="D89">
-        <v>0.3285009733432811</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3483071933430198</v>
+      </c>
+      <c r="E89">
+        <v>0.07040399189594219</v>
+      </c>
+      <c r="F89">
+        <v>0.08021064339150322</v>
+      </c>
+      <c r="G89">
+        <v>-0.02119518376887297</v>
+      </c>
+      <c r="H89">
+        <v>-0.006181844144693774</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07618430979430517</v>
+        <v>0.07878214369117732</v>
       </c>
       <c r="C90">
-        <v>-0.05804834980264695</v>
+        <v>-0.07998447389756919</v>
       </c>
       <c r="D90">
-        <v>0.3120609087388866</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3029624284887896</v>
+      </c>
+      <c r="E90">
+        <v>0.06620938490651687</v>
+      </c>
+      <c r="F90">
+        <v>0.004946005262241584</v>
+      </c>
+      <c r="G90">
+        <v>-0.002448466031187212</v>
+      </c>
+      <c r="H90">
+        <v>-0.001844526974982819</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08902356006266932</v>
+        <v>0.09118114197563841</v>
       </c>
       <c r="C91">
-        <v>-0.05106128693668723</v>
+        <v>-0.03066452143639028</v>
       </c>
       <c r="D91">
-        <v>-0.0254765430225464</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03212939371144833</v>
+      </c>
+      <c r="E91">
+        <v>0.006467696274710532</v>
+      </c>
+      <c r="F91">
+        <v>0.003422488442096876</v>
+      </c>
+      <c r="G91">
+        <v>-0.05025099209035823</v>
+      </c>
+      <c r="H91">
+        <v>-0.08217156836227806</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07675440575862229</v>
+        <v>0.07933358460426891</v>
       </c>
       <c r="C92">
-        <v>-0.07329207094381929</v>
+        <v>-0.09945833556380788</v>
       </c>
       <c r="D92">
-        <v>0.336050206305326</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3409875745656721</v>
+      </c>
+      <c r="E92">
+        <v>0.03749308390225458</v>
+      </c>
+      <c r="F92">
+        <v>0.04417953382723497</v>
+      </c>
+      <c r="G92">
+        <v>0.01790361715419478</v>
+      </c>
+      <c r="H92">
+        <v>-0.01647940650956113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06748092698831812</v>
+        <v>0.07571871751708997</v>
       </c>
       <c r="C93">
-        <v>-0.06457920247475564</v>
+        <v>-0.09285494984811095</v>
       </c>
       <c r="D93">
-        <v>0.3063634865975816</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.30368237957698</v>
+      </c>
+      <c r="E93">
+        <v>0.02174822924196748</v>
+      </c>
+      <c r="F93">
+        <v>0.03589479743748072</v>
+      </c>
+      <c r="G93">
+        <v>0.01925220550849373</v>
+      </c>
+      <c r="H93">
+        <v>0.01279626715235009</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1356526207670801</v>
+        <v>0.1290761414867472</v>
       </c>
       <c r="C94">
-        <v>-0.04476817807393847</v>
+        <v>-0.0139729916133483</v>
       </c>
       <c r="D94">
-        <v>-0.03927454205539499</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04710040312939284</v>
+      </c>
+      <c r="E94">
+        <v>-0.01768574910597225</v>
+      </c>
+      <c r="F94">
+        <v>0.01224819402927746</v>
+      </c>
+      <c r="G94">
+        <v>-0.06551651190339979</v>
+      </c>
+      <c r="H94">
+        <v>-0.0974823154320562</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1230221293882679</v>
+        <v>0.1284147525781929</v>
       </c>
       <c r="C95">
-        <v>-0.02573499290237461</v>
+        <v>0.0001587502090062</v>
       </c>
       <c r="D95">
-        <v>-0.06286776314921991</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06631343217196643</v>
+      </c>
+      <c r="E95">
+        <v>0.008964187377817113</v>
+      </c>
+      <c r="F95">
+        <v>0.03143284134376826</v>
+      </c>
+      <c r="G95">
+        <v>0.0151620564960375</v>
+      </c>
+      <c r="H95">
+        <v>0.04578748410375228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2210599905509981</v>
+        <v>0.2044169679491622</v>
       </c>
       <c r="C97">
-        <v>-0.0413102204828748</v>
+        <v>0.002755016448259671</v>
       </c>
       <c r="D97">
-        <v>0.1075967154374969</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0795423047835719</v>
+      </c>
+      <c r="E97">
+        <v>-0.1826712705460439</v>
+      </c>
+      <c r="F97">
+        <v>-0.9086351830246877</v>
+      </c>
+      <c r="G97">
+        <v>0.08027778611244488</v>
+      </c>
+      <c r="H97">
+        <v>-0.0228179968838829</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2498697822906571</v>
+        <v>0.2757952632207645</v>
       </c>
       <c r="C98">
-        <v>-0.06000514243715475</v>
+        <v>-0.02328774145580793</v>
       </c>
       <c r="D98">
-        <v>-0.03186628712940105</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05204495158986649</v>
+      </c>
+      <c r="E98">
+        <v>-0.1898842939671472</v>
+      </c>
+      <c r="F98">
+        <v>0.05444551619599534</v>
+      </c>
+      <c r="G98">
+        <v>-0.2296400162220421</v>
+      </c>
+      <c r="H98">
+        <v>0.2713414402678998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4027481272458391</v>
+        <v>0.2714912501841162</v>
       </c>
       <c r="C99">
-        <v>0.8976337872981301</v>
+        <v>0.9294695818055931</v>
       </c>
       <c r="D99">
-        <v>0.05435517430931356</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1697310624496263</v>
+      </c>
+      <c r="E99">
+        <v>0.07069671122117069</v>
+      </c>
+      <c r="F99">
+        <v>0.05926490554060859</v>
+      </c>
+      <c r="G99">
+        <v>-0.02506863991804273</v>
+      </c>
+      <c r="H99">
+        <v>-0.07088695782787685</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04180926027918468</v>
+        <v>0.04882408601698884</v>
       </c>
       <c r="C101">
-        <v>-0.02931714678983166</v>
+        <v>-0.02643716170372904</v>
       </c>
       <c r="D101">
-        <v>-0.01240589766779559</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.00932060130033403</v>
+      </c>
+      <c r="E101">
+        <v>0.061154194633196</v>
+      </c>
+      <c r="F101">
+        <v>0.01250851890379087</v>
+      </c>
+      <c r="G101">
+        <v>-0.008071567605972567</v>
+      </c>
+      <c r="H101">
+        <v>-0.07204276482125492</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
